--- a/output/posm-postcodes-full.xlsx
+++ b/output/posm-postcodes-full.xlsx
@@ -9821,10 +9821,10 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>6.342099</v>
+        <v>6.041226766</v>
       </c>
       <c r="G303" t="n">
-        <v>100.189423</v>
+        <v>100.3970193</v>
       </c>
     </row>
     <row r="304">
@@ -69310,10 +69310,10 @@
         </is>
       </c>
       <c r="F2222" t="n">
-        <v>3.09803</v>
+        <v>3.048914445</v>
       </c>
       <c r="G2222" t="n">
-        <v>101.73695</v>
+        <v>101.7688979</v>
       </c>
     </row>
     <row r="2223">
@@ -69327,7 +69327,7 @@
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>43200</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr">
@@ -69341,10 +69341,10 @@
         </is>
       </c>
       <c r="F2223" t="n">
-        <v>3.09803</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2223" t="n">
-        <v>101.73695</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2224">
@@ -70567,7 +70567,7 @@
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr">
@@ -70581,10 +70581,10 @@
         </is>
       </c>
       <c r="F2263" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2263" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2264">
@@ -70598,7 +70598,7 @@
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr">
@@ -70612,10 +70612,10 @@
         </is>
       </c>
       <c r="F2264" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2264" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2265">
@@ -70660,7 +70660,7 @@
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr">
@@ -70674,10 +70674,10 @@
         </is>
       </c>
       <c r="F2266" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2266" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2267">
@@ -70691,7 +70691,7 @@
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr">
@@ -70705,10 +70705,10 @@
         </is>
       </c>
       <c r="F2267" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2267" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2268">
@@ -70722,7 +70722,7 @@
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr">
@@ -70736,10 +70736,10 @@
         </is>
       </c>
       <c r="F2268" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2268" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2269">
@@ -70753,7 +70753,7 @@
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr">
@@ -70767,10 +70767,10 @@
         </is>
       </c>
       <c r="F2269" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2269" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2270">
@@ -70784,7 +70784,7 @@
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr">
@@ -70798,10 +70798,10 @@
         </is>
       </c>
       <c r="F2270" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2270" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2271">
@@ -70815,7 +70815,7 @@
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr">
@@ -70829,10 +70829,10 @@
         </is>
       </c>
       <c r="F2271" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2271" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2272">
@@ -70846,7 +70846,7 @@
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr">
@@ -70860,10 +70860,10 @@
         </is>
       </c>
       <c r="F2272" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2272" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2273">
@@ -70877,7 +70877,7 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr">
@@ -70891,10 +70891,10 @@
         </is>
       </c>
       <c r="F2273" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2273" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2274">
@@ -70908,7 +70908,7 @@
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr">
@@ -70922,10 +70922,10 @@
         </is>
       </c>
       <c r="F2274" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2274" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2275">
@@ -70939,7 +70939,7 @@
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr">
@@ -70953,10 +70953,10 @@
         </is>
       </c>
       <c r="F2275" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2275" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2276">
@@ -70970,7 +70970,7 @@
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr">
@@ -70984,10 +70984,10 @@
         </is>
       </c>
       <c r="F2276" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2276" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2277">
@@ -71001,7 +71001,7 @@
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr">
@@ -71015,10 +71015,10 @@
         </is>
       </c>
       <c r="F2277" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2277" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2278">
@@ -71032,7 +71032,7 @@
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr">
@@ -71046,10 +71046,10 @@
         </is>
       </c>
       <c r="F2278" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2278" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2279">
@@ -71063,7 +71063,7 @@
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr">
@@ -71077,10 +71077,10 @@
         </is>
       </c>
       <c r="F2279" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2279" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2280">
@@ -71094,7 +71094,7 @@
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr">
@@ -71108,10 +71108,10 @@
         </is>
       </c>
       <c r="F2280" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2280" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2281">
@@ -71125,7 +71125,7 @@
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr">
@@ -71139,10 +71139,10 @@
         </is>
       </c>
       <c r="F2281" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2281" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2282">
@@ -71156,7 +71156,7 @@
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr">
@@ -71170,10 +71170,10 @@
         </is>
       </c>
       <c r="F2282" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2282" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2283">
@@ -71187,7 +71187,7 @@
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr">
@@ -71201,10 +71201,10 @@
         </is>
       </c>
       <c r="F2283" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2283" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2284">
@@ -71218,7 +71218,7 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr">
@@ -71232,10 +71232,10 @@
         </is>
       </c>
       <c r="F2284" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2284" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2285">
@@ -71249,7 +71249,7 @@
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr">
@@ -71263,10 +71263,10 @@
         </is>
       </c>
       <c r="F2285" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2285" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2286">
@@ -71280,7 +71280,7 @@
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr">
@@ -71294,10 +71294,10 @@
         </is>
       </c>
       <c r="F2286" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2286" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2287">
@@ -71311,7 +71311,7 @@
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr">
@@ -71325,10 +71325,10 @@
         </is>
       </c>
       <c r="F2287" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2287" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2288">
@@ -71342,7 +71342,7 @@
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr">
@@ -71356,10 +71356,10 @@
         </is>
       </c>
       <c r="F2288" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2288" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2289">
@@ -71373,7 +71373,7 @@
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr">
@@ -71387,10 +71387,10 @@
         </is>
       </c>
       <c r="F2289" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2289" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2290">
@@ -71404,7 +71404,7 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr">
@@ -71418,10 +71418,10 @@
         </is>
       </c>
       <c r="F2290" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2290" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2291">
@@ -71435,7 +71435,7 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr">
@@ -71449,10 +71449,10 @@
         </is>
       </c>
       <c r="F2291" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2291" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2292">
@@ -71466,7 +71466,7 @@
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr">
@@ -71480,10 +71480,10 @@
         </is>
       </c>
       <c r="F2292" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2292" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2293">
@@ -71497,7 +71497,7 @@
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr">
@@ -71511,10 +71511,10 @@
         </is>
       </c>
       <c r="F2293" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2293" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2294">
@@ -71528,7 +71528,7 @@
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr">
@@ -71542,10 +71542,10 @@
         </is>
       </c>
       <c r="F2294" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2294" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2295">
@@ -71559,7 +71559,7 @@
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr">
@@ -71573,10 +71573,10 @@
         </is>
       </c>
       <c r="F2295" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2295" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2296">
@@ -71590,7 +71590,7 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr">
@@ -71604,10 +71604,10 @@
         </is>
       </c>
       <c r="F2296" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2296" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2297">
@@ -71621,7 +71621,7 @@
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr">
@@ -71635,10 +71635,10 @@
         </is>
       </c>
       <c r="F2297" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2297" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2298">
@@ -71652,7 +71652,7 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr">
@@ -71666,10 +71666,10 @@
         </is>
       </c>
       <c r="F2298" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2298" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2299">
@@ -71683,7 +71683,7 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr">
@@ -71697,10 +71697,10 @@
         </is>
       </c>
       <c r="F2299" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2299" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2300">
@@ -71714,7 +71714,7 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr">
@@ -71728,10 +71728,10 @@
         </is>
       </c>
       <c r="F2300" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2300" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2301">
@@ -71745,7 +71745,7 @@
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr">
@@ -71759,10 +71759,10 @@
         </is>
       </c>
       <c r="F2301" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2301" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2302">
@@ -71776,7 +71776,7 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr">
@@ -71790,10 +71790,10 @@
         </is>
       </c>
       <c r="F2302" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2302" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2303">
@@ -71807,7 +71807,7 @@
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr">
@@ -71821,10 +71821,10 @@
         </is>
       </c>
       <c r="F2303" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2303" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2304">
@@ -71838,7 +71838,7 @@
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr">
@@ -71852,10 +71852,10 @@
         </is>
       </c>
       <c r="F2304" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2304" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2305">
@@ -71869,7 +71869,7 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr">
@@ -71883,10 +71883,10 @@
         </is>
       </c>
       <c r="F2305" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2305" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2306">
@@ -71900,7 +71900,7 @@
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr">
@@ -71914,10 +71914,10 @@
         </is>
       </c>
       <c r="F2306" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2306" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2307">
@@ -71931,7 +71931,7 @@
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr">
@@ -71945,10 +71945,10 @@
         </is>
       </c>
       <c r="F2307" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2307" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2308">
@@ -71962,7 +71962,7 @@
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr">
@@ -71976,10 +71976,10 @@
         </is>
       </c>
       <c r="F2308" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2308" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2309">
@@ -71993,7 +71993,7 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr">
@@ -72007,10 +72007,10 @@
         </is>
       </c>
       <c r="F2309" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2309" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2310">
@@ -72024,7 +72024,7 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr">
@@ -72038,10 +72038,10 @@
         </is>
       </c>
       <c r="F2310" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2310" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2311">
@@ -72055,7 +72055,7 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr">
@@ -72069,10 +72069,10 @@
         </is>
       </c>
       <c r="F2311" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2311" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2312">
@@ -72086,7 +72086,7 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr">
@@ -72100,10 +72100,10 @@
         </is>
       </c>
       <c r="F2312" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2312" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2313">
@@ -72117,7 +72117,7 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr">
@@ -72131,10 +72131,10 @@
         </is>
       </c>
       <c r="F2313" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2313" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2314">
@@ -72148,7 +72148,7 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr">
@@ -72162,10 +72162,10 @@
         </is>
       </c>
       <c r="F2314" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2314" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2315">
@@ -72179,7 +72179,7 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr">
@@ -72193,10 +72193,10 @@
         </is>
       </c>
       <c r="F2315" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2315" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2316">
@@ -72210,7 +72210,7 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr">
@@ -72224,10 +72224,10 @@
         </is>
       </c>
       <c r="F2316" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2316" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2317">
@@ -72241,7 +72241,7 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr">
@@ -72255,10 +72255,10 @@
         </is>
       </c>
       <c r="F2317" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2317" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2318">
@@ -72272,7 +72272,7 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr">
@@ -72286,10 +72286,10 @@
         </is>
       </c>
       <c r="F2318" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2318" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2319">
@@ -72303,7 +72303,7 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr">
@@ -72317,10 +72317,10 @@
         </is>
       </c>
       <c r="F2319" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2319" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2320">
@@ -72334,7 +72334,7 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr">
@@ -72348,10 +72348,10 @@
         </is>
       </c>
       <c r="F2320" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2320" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2321">
@@ -72365,7 +72365,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="F2321" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2321" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2322">
@@ -72396,7 +72396,7 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr">
@@ -72410,10 +72410,10 @@
         </is>
       </c>
       <c r="F2322" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2322" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2323">
@@ -72427,7 +72427,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr">
@@ -72441,10 +72441,10 @@
         </is>
       </c>
       <c r="F2323" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2323" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2324">
@@ -72458,7 +72458,7 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr">
@@ -72472,10 +72472,10 @@
         </is>
       </c>
       <c r="F2324" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2324" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2325">
@@ -72985,7 +72985,7 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr">
@@ -72999,10 +72999,10 @@
         </is>
       </c>
       <c r="F2341" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2341" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2342">
@@ -73357,7 +73357,7 @@
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>47810</t>
+          <t>46000</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr">
@@ -73371,10 +73371,10 @@
         </is>
       </c>
       <c r="F2353" t="n">
-        <v>3.0749915</v>
+        <v>3.086439</v>
       </c>
       <c r="G2353" t="n">
-        <v>101.6719175</v>
+        <v>101.649091</v>
       </c>
     </row>
     <row r="2354">
@@ -73388,7 +73388,7 @@
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46300</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr">
@@ -73402,10 +73402,10 @@
         </is>
       </c>
       <c r="F2354" t="n">
-        <v>3.086439</v>
+        <v>3.110464412</v>
       </c>
       <c r="G2354" t="n">
-        <v>101.649091</v>
+        <v>101.6263315</v>
       </c>
     </row>
     <row r="2355">
@@ -85275,10 +85275,10 @@
         </is>
       </c>
       <c r="F2737" t="n">
-        <v>3.26023786986996</v>
+        <v>3.26023787</v>
       </c>
       <c r="G2737" t="n">
-        <v>101.733398717619</v>
+        <v>101.7333987</v>
       </c>
     </row>
     <row r="2738">
